--- a/source files/start_balances_ftb04.xlsx
+++ b/source files/start_balances_ftb04.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT Repos/ftrack/source files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8348856E-4888-A344-8140-9C4CF4D32230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681BBADE-B5EE-AC47-AEE1-47DFA73A577E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104860" yWindow="3120" windowWidth="27240" windowHeight="16440" xr2:uid="{E43153BC-7721-0A4B-95AA-1435BFEADCEF}"/>
+    <workbookView xWindow="5220" yWindow="2200" windowWidth="27240" windowHeight="16440" xr2:uid="{E43153BC-7721-0A4B-95AA-1435BFEADCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA7D9C0-5D57-484F-AF85-132BA56517C4}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
